--- a/result/interactions_download/Lung_cancer_SCLC_precog_mut.xlsx
+++ b/result/interactions_download/Lung_cancer_SCLC_precog_mut.xlsx
@@ -1731,13 +1731,13 @@
     <t xml:space="preserve">TMC4</t>
   </si>
   <si>
+    <t xml:space="preserve">SLC3A2</t>
+  </si>
+  <si>
     <t xml:space="preserve">from</t>
   </si>
   <si>
     <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC3A2</t>
   </si>
 </sst>
 </file>
@@ -13329,6 +13329,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>572</v>
+      </c>
+      <c r="B564"/>
+      <c r="C564"/>
+      <c r="D564"/>
+      <c r="E564"/>
+      <c r="F564"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -13345,10 +13355,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2">
@@ -13388,7 +13398,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7">
@@ -13596,7 +13606,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33">
@@ -13740,7 +13750,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51">
@@ -14284,7 +14294,7 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119">
@@ -14332,7 +14342,7 @@
         <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="125">
@@ -14804,7 +14814,7 @@
         <v>39</v>
       </c>
       <c r="B183" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="184">
@@ -15028,7 +15038,7 @@
         <v>50</v>
       </c>
       <c r="B211" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="212">
@@ -15060,7 +15070,7 @@
         <v>51</v>
       </c>
       <c r="B215" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="216">
@@ -16364,7 +16374,7 @@
         <v>161</v>
       </c>
       <c r="B378" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="379">
@@ -16380,7 +16390,7 @@
         <v>162</v>
       </c>
       <c r="B380" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="381">
@@ -16993,7 +17003,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B457" t="s">
         <v>343</v>
